--- a/我的创作/炒股/交易运行状态/交易日志.xlsx
+++ b/我的创作/炒股/交易运行状态/交易日志.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView windowWidth="26500" windowHeight="11360"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表 1" sheetId="1" r:id="rId4"/>
+    <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
   <si>
     <t>表格 1</t>
   </si>
@@ -113,35 +116,186 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="yyyy/m/d"/>
-    <numFmt numFmtId="60" formatCode="yyyy/mm/dd"/>
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="13"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -151,23 +305,209 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
-        <bgColor auto="1"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="12"/>
-        <bgColor auto="1"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="14"/>
-        <bgColor auto="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -191,19 +531,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
       <top style="thin">
         <color indexed="10"/>
       </top>
@@ -317,109 +644,465 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="22">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="60" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00AAAAAA"/>
+      <rgbColor rgb="00A5A5A5"/>
+      <rgbColor rgb="00BDC0BF"/>
+      <rgbColor rgb="003F3F3F"/>
+      <rgbColor rgb="00DBDBDB"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -618,8 +1301,6 @@
           <a:prstDash val="solid"/>
           <a:round/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
@@ -639,8 +1320,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -652,7 +1332,7 @@
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue" panose="02000503000000020004"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -669,8 +1349,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -695,8 +1374,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -721,8 +1399,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -747,8 +1424,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -773,8 +1449,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -799,8 +1474,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -825,8 +1499,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -851,8 +1524,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -877,8 +1549,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -891,9 +1562,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -907,8 +1584,6 @@
           <a:prstDash val="solid"/>
           <a:round/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
@@ -928,8 +1603,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -954,8 +1628,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -980,8 +1653,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1006,8 +1678,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1032,8 +1703,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1058,8 +1728,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1084,8 +1753,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1110,8 +1778,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1136,8 +1803,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1162,8 +1828,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1176,9 +1841,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1189,8 +1860,6 @@
           <a:noFill/>
           <a:miter lim="400000"/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
@@ -1210,8 +1879,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1223,7 +1891,7 @@
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue" panose="02000503000000020004"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1240,8 +1908,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1266,8 +1933,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1292,8 +1958,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1318,8 +1983,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1344,8 +2008,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1370,8 +2033,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1396,8 +2058,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1422,8 +2083,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1448,8 +2108,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1462,9 +2121,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
@@ -1473,19 +2138,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:U1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.3303571428571" defaultRowHeight="19.9" customHeight="1"/>
   <cols>
-    <col min="1" max="21" width="16.3516" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="16384" width="16.3482142857143" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" ht="31" customHeight="1" spans="1:21">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
@@ -1507,786 +2174,786 @@
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
       <c r="T1" s="3"/>
-      <c r="U1" s="4"/>
+      <c r="U1" s="21"/>
     </row>
-    <row r="2" ht="79.7" customHeight="1">
-      <c r="A2" t="s" s="5">
+    <row r="2" ht="79.7" customHeight="1" spans="1:21">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="5">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="5">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="5">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="5">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="5">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s" s="5">
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s" s="5">
+      <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I2" t="s" s="5">
+      <c r="I2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J2" t="s" s="5">
+      <c r="J2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K2" t="s" s="5">
+      <c r="K2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L2" t="s" s="5">
+      <c r="L2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M2" t="s" s="5">
+      <c r="M2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N2" t="s" s="5">
+      <c r="N2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O2" t="s" s="5">
+      <c r="O2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P2" t="s" s="5">
+      <c r="P2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" t="s" s="5">
+      <c r="Q2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="R2" t="s" s="5">
+      <c r="R2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="S2" t="s" s="5">
+      <c r="S2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
     </row>
-    <row r="3" ht="22.55" customHeight="1">
-      <c r="A3" s="7">
+    <row r="3" ht="22.55" customHeight="1" spans="1:21">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" t="s" s="8">
+      <c r="B3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s" s="9">
+      <c r="C3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D3" t="s" s="9">
+      <c r="D3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E3" t="s" s="9">
+      <c r="E3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="14">
         <v>7.55</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="14">
         <v>5</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="14">
         <v>0.02</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="14">
         <v>760.02</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="14">
         <v>5.24</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="16">
         <v>44491</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="14">
         <v>7.14</v>
       </c>
-      <c r="M3" s="10">
+      <c r="M3" s="14">
         <v>5</v>
       </c>
-      <c r="N3" s="10">
+      <c r="N3" s="14">
         <v>0.72</v>
       </c>
-      <c r="O3" s="10">
+      <c r="O3" s="14">
         <v>708.28</v>
       </c>
-      <c r="P3" s="10">
+      <c r="P3" s="14">
         <v>-51.74</v>
       </c>
-      <c r="Q3" s="10">
+      <c r="Q3" s="14">
         <v>50</v>
       </c>
-      <c r="R3" s="10">
+      <c r="R3" s="14">
         <v>35</v>
       </c>
-      <c r="S3" s="10">
+      <c r="S3" s="14">
         <v>-7.82</v>
       </c>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
     </row>
-    <row r="4" ht="22.35" customHeight="1">
-      <c r="A4" s="13">
+    <row r="4" ht="22.35" customHeight="1" spans="1:21">
+      <c r="A4" s="8">
         <v>2</v>
       </c>
-      <c r="B4" t="s" s="14">
+      <c r="B4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s" s="15">
+      <c r="C4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D4" t="s" s="15">
+      <c r="D4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E4" t="s" s="15">
+      <c r="E4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="15">
         <v>7.37</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="15">
         <v>5</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="15">
         <v>0</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="15">
         <v>742</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="15">
         <v>1.36</v>
       </c>
       <c r="K4" s="17">
         <v>44490</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="15">
         <v>7.49</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="15">
         <v>5</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="15">
         <v>0.75</v>
       </c>
-      <c r="O4" s="16">
+      <c r="O4" s="15">
         <v>743.25</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="15">
         <v>1.25</v>
       </c>
-      <c r="Q4" s="16">
+      <c r="Q4" s="15">
         <v>20</v>
       </c>
-      <c r="R4" s="16">
+      <c r="R4" s="15">
         <v>52.78</v>
       </c>
-      <c r="S4" s="16">
+      <c r="S4" s="15">
         <v>8.82</v>
       </c>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
     </row>
-    <row r="5" ht="22.35" customHeight="1">
-      <c r="A5" s="13">
+    <row r="5" ht="22.35" customHeight="1" spans="1:21">
+      <c r="A5" s="8">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="14">
+      <c r="B5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s" s="15">
+      <c r="C5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D5" t="s" s="15">
+      <c r="D5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E5" t="s" s="15">
+      <c r="E5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="15">
         <v>7.55</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="15">
         <v>5</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="15">
         <v>0</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="15">
         <v>760</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="15">
         <v>1.39</v>
       </c>
       <c r="K5" s="17">
         <v>44495</v>
       </c>
-      <c r="L5" s="16">
+      <c r="L5" s="15">
         <v>7.35</v>
       </c>
-      <c r="M5" s="16">
+      <c r="M5" s="15">
         <v>5</v>
       </c>
-      <c r="N5" s="16">
+      <c r="N5" s="15">
         <v>0.74</v>
       </c>
-      <c r="O5" s="16">
+      <c r="O5" s="15">
         <v>729.26</v>
       </c>
-      <c r="P5" s="16">
+      <c r="P5" s="15">
         <v>-30.74</v>
       </c>
-      <c r="Q5" s="16">
+      <c r="Q5" s="15">
         <v>36.23</v>
       </c>
-      <c r="R5" s="16">
+      <c r="R5" s="15">
         <v>24.32</v>
       </c>
-      <c r="S5" s="16">
+      <c r="S5" s="15">
         <v>-14.39</v>
       </c>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
     </row>
-    <row r="6" ht="22.35" customHeight="1">
-      <c r="A6" s="13">
+    <row r="6" ht="22.35" customHeight="1" spans="1:21">
+      <c r="A6" s="8">
         <v>4</v>
       </c>
-      <c r="B6" t="s" s="14">
+      <c r="B6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s" s="15">
+      <c r="C6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D6" t="s" s="15">
+      <c r="D6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E6" t="s" s="15">
+      <c r="E6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="15">
         <v>7.63</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="15">
         <v>5</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="15">
         <v>0</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="15">
         <v>768</v>
       </c>
-      <c r="J6" t="s" s="15">
+      <c r="J6" s="10" t="s">
         <v>27</v>
       </c>
       <c r="K6" s="17">
         <v>44496</v>
       </c>
-      <c r="L6" s="16">
+      <c r="L6" s="15">
         <v>7.13</v>
       </c>
-      <c r="M6" s="16">
+      <c r="M6" s="15">
         <v>5</v>
       </c>
-      <c r="N6" s="16">
+      <c r="N6" s="15">
         <v>0.71</v>
       </c>
-      <c r="O6" s="16">
+      <c r="O6" s="15">
         <v>707.29</v>
       </c>
-      <c r="P6" s="16">
+      <c r="P6" s="15">
         <v>-60.71</v>
       </c>
-      <c r="Q6" s="16">
+      <c r="Q6" s="15">
         <v>83.87</v>
       </c>
-      <c r="R6" s="16">
+      <c r="R6" s="15">
         <v>38.1</v>
       </c>
-      <c r="S6" s="16">
+      <c r="S6" s="15">
         <v>-0.32</v>
       </c>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
     </row>
-    <row r="7" ht="22.35" customHeight="1">
-      <c r="A7" s="13">
+    <row r="7" ht="22.35" customHeight="1" spans="1:21">
+      <c r="A7" s="8">
         <v>5</v>
       </c>
-      <c r="B7" t="s" s="14">
+      <c r="B7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C7" t="s" s="15">
+      <c r="C7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D7" t="s" s="15">
+      <c r="D7" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E7" t="s" s="15">
+      <c r="E7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="15">
         <v>7.29</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="15">
         <v>5</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="15">
         <v>0</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="15">
         <v>734</v>
       </c>
-      <c r="J7" t="s" s="15">
+      <c r="J7" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K7" s="19">
+      <c r="K7" s="18">
         <v>44501</v>
       </c>
-      <c r="L7" s="16">
+      <c r="L7" s="15">
         <v>7.4</v>
       </c>
-      <c r="M7" s="16">
+      <c r="M7" s="15">
         <v>5</v>
       </c>
-      <c r="N7" s="16">
+      <c r="N7" s="15">
         <v>0.74</v>
       </c>
-      <c r="O7" s="16">
+      <c r="O7" s="15">
         <v>734.26</v>
       </c>
-      <c r="P7" s="16">
+      <c r="P7" s="15">
         <v>0.26</v>
       </c>
-      <c r="Q7" s="16">
+      <c r="Q7" s="15">
         <v>91.89</v>
       </c>
-      <c r="R7" s="16">
+      <c r="R7" s="15">
         <v>66.67</v>
       </c>
-      <c r="S7" s="16">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T7" s="18"/>
-      <c r="U7" s="18"/>
+      <c r="S7" s="15">
+        <v>0.07</v>
+      </c>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
     </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="13">
+    <row r="8" ht="20.05" customHeight="1" spans="1:21">
+      <c r="A8" s="8">
         <v>6</v>
       </c>
-      <c r="B8" t="s" s="14">
+      <c r="B8" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C8" t="s" s="15">
+      <c r="C8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D8" t="s" s="15">
+      <c r="D8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E8" t="s" s="15">
+      <c r="E8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="15">
         <v>7.51</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="15">
         <v>5</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="15">
         <v>0</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="15">
         <v>756</v>
       </c>
-      <c r="J8" t="s" s="15">
+      <c r="J8" s="10" t="s">
         <v>31</v>
       </c>
       <c r="K8" s="17">
         <v>44511</v>
       </c>
-      <c r="L8" s="16">
+      <c r="L8" s="15">
         <v>7.64</v>
       </c>
-      <c r="M8" s="16">
+      <c r="M8" s="15">
         <v>5</v>
       </c>
-      <c r="N8" s="16">
+      <c r="N8" s="15">
         <v>0.76</v>
       </c>
-      <c r="O8" s="16">
+      <c r="O8" s="15">
         <v>758.24</v>
       </c>
-      <c r="P8" s="16">
+      <c r="P8" s="15">
         <v>2.24</v>
       </c>
-      <c r="Q8" s="16">
+      <c r="Q8" s="15">
         <v>88.89</v>
       </c>
-      <c r="R8" s="16">
+      <c r="R8" s="15">
         <v>63.64</v>
       </c>
-      <c r="S8" s="16">
+      <c r="S8" s="15">
         <v>14.4</v>
       </c>
-      <c r="T8" s="18"/>
-      <c r="U8" s="18"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
     </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="20"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18"/>
+    <row r="9" ht="20.05" customHeight="1" spans="1:21">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
     </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="18"/>
+    <row r="10" ht="20.05" customHeight="1" spans="1:21">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
     </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="20"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="18"/>
+    <row r="11" ht="20.05" customHeight="1" spans="1:21">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
     </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="20"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="18"/>
+    <row r="12" ht="20.05" customHeight="1" spans="1:21">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
     </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="20"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="18"/>
+    <row r="13" ht="20.05" customHeight="1" spans="1:21">
+      <c r="A13" s="11"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
     </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="20"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="18"/>
-      <c r="T14" s="18"/>
-      <c r="U14" s="18"/>
+    <row r="14" ht="20.05" customHeight="1" spans="1:21">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
     </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="20"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
-      <c r="U15" s="18"/>
+    <row r="15" ht="20.05" customHeight="1" spans="1:21">
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
     </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="20"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="18"/>
-      <c r="T16" s="18"/>
-      <c r="U16" s="18"/>
+    <row r="16" ht="20.05" customHeight="1" spans="1:21">
+      <c r="A16" s="11"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
     </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="20"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="18"/>
-      <c r="T17" s="18"/>
-      <c r="U17" s="18"/>
+    <row r="17" ht="20.05" customHeight="1" spans="1:21">
+      <c r="A17" s="11"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
     </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="20"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="18"/>
-      <c r="S18" s="18"/>
-      <c r="T18" s="18"/>
-      <c r="U18" s="18"/>
+    <row r="18" ht="20.05" customHeight="1" spans="1:21">
+      <c r="A18" s="11"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
     </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="20"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="18"/>
-      <c r="R19" s="18"/>
-      <c r="S19" s="18"/>
-      <c r="T19" s="18"/>
-      <c r="U19" s="18"/>
+    <row r="19" ht="20.05" customHeight="1" spans="1:21">
+      <c r="A19" s="11"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="13"/>
     </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="20"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="18"/>
-      <c r="R20" s="18"/>
-      <c r="S20" s="18"/>
-      <c r="T20" s="18"/>
-      <c r="U20" s="18"/>
+    <row r="20" ht="20.05" customHeight="1" spans="1:21">
+      <c r="A20" s="11"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
     </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="20"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="18"/>
-      <c r="R21" s="18"/>
-      <c r="S21" s="18"/>
-      <c r="T21" s="18"/>
-      <c r="U21" s="18"/>
+    <row r="21" ht="20.05" customHeight="1" spans="1:21">
+      <c r="A21" s="11"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="13"/>
     </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="20"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="18"/>
-      <c r="P22" s="18"/>
-      <c r="Q22" s="18"/>
-      <c r="R22" s="18"/>
-      <c r="S22" s="18"/>
-      <c r="T22" s="18"/>
-      <c r="U22" s="18"/>
+    <row r="22" ht="20.05" customHeight="1" spans="1:21">
+      <c r="A22" s="11"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="13"/>
     </row>
-    <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" s="20"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="18"/>
-      <c r="S23" s="18"/>
-      <c r="T23" s="18"/>
-      <c r="U23" s="18"/>
+    <row r="23" ht="20.05" customHeight="1" spans="1:21">
+      <c r="A23" s="11"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:U1"/>
   </mergeCells>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277777777777778" footer="0.277777777777778"/>
+  <pageSetup paperSize="1" scale="72" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/我的创作/炒股/交易运行状态/交易日志.xlsx
+++ b/我的创作/炒股/交易运行状态/交易日志.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
-  <si>
-    <t>表格 1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
   <si>
     <t>交易编号</t>
   </si>
@@ -49,6 +46,15 @@
     <t>价格通道</t>
   </si>
   <si>
+    <t>进场当日最高价</t>
+  </si>
+  <si>
+    <t>进场当日最低价</t>
+  </si>
+  <si>
+    <t>进场表现得分(&lt;最高价-进场价格&gt;/最高价-最低价)，越高越好</t>
+  </si>
+  <si>
     <t>出场日期</t>
   </si>
   <si>
@@ -64,19 +70,22 @@
     <t>出场费用合计(出场价格*交易规模-交易佣金-杂费)</t>
   </si>
   <si>
+    <t>出场当日最高价</t>
+  </si>
+  <si>
+    <t>出场当日最低价</t>
+  </si>
+  <si>
+    <t>出场表现得分(&lt;出场价格-最低价&gt;/最高价-最低价)，越高越好</t>
+  </si>
+  <si>
     <t>损益情况</t>
   </si>
   <si>
-    <t>进场表现得分(&lt;最高价-进场价格&gt;/最高价-最低价)，越高越好</t>
-  </si>
-  <si>
-    <t>出场表现得分(&lt;出场价格-最低价&gt;/最高价-最低价)，越高越好</t>
-  </si>
-  <si>
     <t>交易总得分((出场价-进场价格)/通道宽度)</t>
   </si>
   <si>
-    <t>2021/10/20-13:00</t>
+    <t>2021/10/20</t>
   </si>
   <si>
     <t>看涨</t>
@@ -85,53 +94,117 @@
     <t>600707(彩虹股份)</t>
   </si>
   <si>
-    <t>100股</t>
+    <t>100</t>
   </si>
   <si>
     <t>002563(森马服饰)</t>
   </si>
   <si>
-    <t>2021/10/21-13:00</t>
-  </si>
-  <si>
-    <t>2021/10/25-10:44</t>
+    <t>2021/10/21</t>
+  </si>
+  <si>
+    <t>2021/10/25</t>
   </si>
   <si>
     <t>8.70-7.13=1.57</t>
   </si>
   <si>
-    <t>2021/10/26-14:35</t>
-  </si>
-  <si>
-    <t>2021/11/11-10:10</t>
+    <t>2021/10/26</t>
+  </si>
+  <si>
+    <r>
+      <t>002563(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>森马服饰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>2021/10/27</t>
   </si>
   <si>
     <t>002457(青龙管业)</t>
   </si>
   <si>
     <t>8.41-7.51=0.9</t>
+  </si>
+  <si>
+    <r>
+      <t>600857(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>宁波中百</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>002075(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>沙钢股份</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -141,6 +214,25 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="方正书宋_GBK"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="方正书宋_GBK"/>
       <charset val="134"/>
     </font>
     <font>
@@ -158,23 +250,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -188,6 +265,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -196,23 +280,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,14 +320,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -242,7 +343,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,7 +358,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,21 +379,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -286,14 +386,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -304,24 +396,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="14"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="12"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="14"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -334,6 +426,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -346,13 +450,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,7 +540,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,102 +582,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -488,55 +598,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="19">
+  <borders count="17">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -645,12 +713,14 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color indexed="11"/>
@@ -663,15 +733,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -700,17 +761,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -722,6 +772,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -741,17 +817,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -760,152 +830,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -913,64 +983,88 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2140,818 +2234,1046 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:U23"/>
+  <dimension ref="A1:Y22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:U1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3303571428571" defaultRowHeight="19.9" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="16.3482142857143" style="1" customWidth="1"/>
+    <col min="1" max="16383" width="16.3482142857143" style="1" customWidth="1"/>
+    <col min="16384" max="16384" width="16.3303571428571" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31" customHeight="1" spans="1:21">
+    <row r="1" ht="79.7" customHeight="1" spans="1:25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="21"/>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
     </row>
-    <row r="2" ht="79.7" customHeight="1" spans="1:21">
-      <c r="A2" s="4" t="s">
+    <row r="2" ht="22.55" customHeight="1" spans="1:25">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="20">
+        <v>7.55</v>
+      </c>
+      <c r="G2" s="20">
+        <v>5</v>
+      </c>
+      <c r="H2" s="20">
+        <v>0.02</v>
+      </c>
+      <c r="I2" s="20">
+        <f>F2*E2+G2+H2</f>
+        <v>760.02</v>
+      </c>
+      <c r="J2" s="20">
+        <v>5.24</v>
+      </c>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20">
+        <v>50</v>
+      </c>
+      <c r="N2" s="23">
+        <v>44491</v>
+      </c>
+      <c r="O2" s="20">
+        <v>7.14</v>
+      </c>
+      <c r="P2" s="20">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="20">
+        <v>0.72</v>
+      </c>
+      <c r="R2" s="20">
+        <f>O2*100-P2-Q2</f>
+        <v>708.28</v>
+      </c>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="20">
+        <v>35</v>
+      </c>
+      <c r="V2" s="16">
+        <f t="shared" ref="V2:V9" si="0">R2-I2</f>
+        <v>-51.74</v>
+      </c>
+      <c r="W2" s="20">
+        <v>-7.82</v>
+      </c>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29"/>
+    </row>
+    <row r="3" ht="22.35" customHeight="1" spans="1:25">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="B3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="21">
+        <v>7.37</v>
+      </c>
+      <c r="G3" s="21">
+        <v>5</v>
+      </c>
+      <c r="H3" s="21">
+        <v>0</v>
+      </c>
+      <c r="I3" s="20">
+        <f>F3*E3+G3+H3</f>
+        <v>742</v>
+      </c>
+      <c r="J3" s="21">
+        <v>1.36</v>
+      </c>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21">
+        <v>20</v>
+      </c>
+      <c r="N3" s="24">
+        <v>44490</v>
+      </c>
+      <c r="O3" s="21">
+        <v>7.49</v>
+      </c>
+      <c r="P3" s="21">
+        <v>5</v>
+      </c>
+      <c r="Q3" s="21">
+        <v>0.75</v>
+      </c>
+      <c r="R3" s="20">
+        <f>O3*100-P3-Q3</f>
+        <v>743.25</v>
+      </c>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="21">
+        <v>52.78</v>
+      </c>
+      <c r="V3" s="16">
+        <f t="shared" si="0"/>
+        <v>1.25</v>
+      </c>
+      <c r="W3" s="21">
+        <v>8.82</v>
+      </c>
+      <c r="X3" s="19"/>
+      <c r="Y3" s="19"/>
+    </row>
+    <row r="4" ht="22.35" customHeight="1" spans="1:25">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="B4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="21">
+        <v>7.55</v>
+      </c>
+      <c r="G4" s="21">
+        <v>5</v>
+      </c>
+      <c r="H4" s="21">
+        <v>0</v>
+      </c>
+      <c r="I4" s="20">
+        <f>F4*E4+G4+H4</f>
+        <v>760</v>
+      </c>
+      <c r="J4" s="21">
+        <v>1.39</v>
+      </c>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21">
+        <v>36.23</v>
+      </c>
+      <c r="N4" s="24">
+        <v>44495</v>
+      </c>
+      <c r="O4" s="21">
+        <v>7.35</v>
+      </c>
+      <c r="P4" s="21">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="21">
+        <v>0.74</v>
+      </c>
+      <c r="R4" s="20">
+        <f>O4*100-P4-Q4</f>
+        <v>729.26</v>
+      </c>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="21">
+        <v>24.32</v>
+      </c>
+      <c r="V4" s="16">
+        <f t="shared" si="0"/>
+        <v>-30.74</v>
+      </c>
+      <c r="W4" s="21">
+        <v>-14.39</v>
+      </c>
+      <c r="X4" s="19"/>
+      <c r="Y4" s="19"/>
+    </row>
+    <row r="5" ht="22.35" customHeight="1" spans="1:25">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="B5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="21">
+        <v>7.63</v>
+      </c>
+      <c r="G5" s="21">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="H5" s="21">
+        <v>0</v>
+      </c>
+      <c r="I5" s="20">
+        <f>F5*E5+G5+H5</f>
+        <v>768</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="21">
+        <v>83.87</v>
+      </c>
+      <c r="N5" s="24">
+        <v>44496</v>
+      </c>
+      <c r="O5" s="21">
+        <v>7.13</v>
+      </c>
+      <c r="P5" s="21">
+        <v>5</v>
+      </c>
+      <c r="Q5" s="21">
+        <v>0.71</v>
+      </c>
+      <c r="R5" s="20">
+        <f>O5*100-P5-Q5</f>
+        <v>707.29</v>
+      </c>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="21">
+        <v>38.1</v>
+      </c>
+      <c r="V5" s="16">
+        <f t="shared" si="0"/>
+        <v>-60.71</v>
+      </c>
+      <c r="W5" s="21">
+        <v>-0.32</v>
+      </c>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="19"/>
+    </row>
+    <row r="6" ht="22.35" customHeight="1" spans="1:25">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="21">
+        <v>7.29</v>
+      </c>
+      <c r="G6" s="21">
+        <v>5</v>
+      </c>
+      <c r="H6" s="21">
+        <v>0</v>
+      </c>
+      <c r="I6" s="20">
+        <f>F6*E6+G6+H6</f>
+        <v>734</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="21">
+        <v>91.89</v>
+      </c>
+      <c r="N6" s="25">
+        <v>44501</v>
+      </c>
+      <c r="O6" s="21">
+        <v>7.4</v>
+      </c>
+      <c r="P6" s="21">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="21">
+        <v>0.74</v>
+      </c>
+      <c r="R6" s="20">
+        <f>O6*100-P6-Q6</f>
+        <v>734.26</v>
+      </c>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="21">
+        <v>66.67</v>
+      </c>
+      <c r="V6" s="16">
+        <f t="shared" si="0"/>
+        <v>0.259999999999991</v>
+      </c>
+      <c r="W6" s="21">
+        <v>0.07</v>
+      </c>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="19"/>
+    </row>
+    <row r="7" ht="20.05" customHeight="1" spans="1:25">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="B7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="21">
+        <v>7.51</v>
+      </c>
+      <c r="G7" s="21">
+        <v>5</v>
+      </c>
+      <c r="H7" s="21">
+        <v>0</v>
+      </c>
+      <c r="I7" s="20">
+        <f>F7*E7+G7+H7</f>
+        <v>756</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="21">
+        <v>88.89</v>
+      </c>
+      <c r="N7" s="24">
+        <v>44511</v>
+      </c>
+      <c r="O7" s="21">
+        <v>7.64</v>
+      </c>
+      <c r="P7" s="21">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="21">
+        <v>0.76</v>
+      </c>
+      <c r="R7" s="20">
+        <f>O7*100-P7-Q7</f>
+        <v>758.24</v>
+      </c>
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="21">
+        <v>63.64</v>
+      </c>
+      <c r="V7" s="16">
+        <f t="shared" si="0"/>
+        <v>2.24000000000001</v>
+      </c>
+      <c r="W7" s="21">
+        <v>14.4</v>
+      </c>
+      <c r="X7" s="19"/>
+      <c r="Y7" s="19"/>
+    </row>
+    <row r="8" ht="20.05" customHeight="1" spans="1:25">
+      <c r="A8" s="10">
         <v>7</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="B8" s="11">
+        <v>44508</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="13">
+        <v>100</v>
+      </c>
+      <c r="F8" s="16">
+        <v>7.06</v>
+      </c>
+      <c r="G8" s="21">
+        <v>5</v>
+      </c>
+      <c r="H8" s="16">
+        <v>0</v>
+      </c>
+      <c r="I8" s="20">
+        <f>F8*E8+G8+H8</f>
+        <v>711</v>
+      </c>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16">
+        <v>7.17</v>
+      </c>
+      <c r="L8" s="16">
+        <v>7.04</v>
+      </c>
+      <c r="M8" s="26">
+        <f>(K8-F8)/(K8-L8)</f>
+        <v>0.846153846153849</v>
+      </c>
+      <c r="N8" s="24">
+        <v>44515</v>
+      </c>
+      <c r="O8" s="16">
+        <v>7.36</v>
+      </c>
+      <c r="P8" s="16">
+        <v>5</v>
+      </c>
+      <c r="Q8" s="16">
+        <v>0.74</v>
+      </c>
+      <c r="R8" s="20">
+        <f>O8*100-P8-Q8</f>
+        <v>730.26</v>
+      </c>
+      <c r="S8" s="27">
+        <v>7.52</v>
+      </c>
+      <c r="T8" s="27">
+        <v>7.14</v>
+      </c>
+      <c r="U8" s="26">
+        <f>(O8-T8)/(S8-T8)</f>
+        <v>0.578947368421054</v>
+      </c>
+      <c r="V8" s="16">
+        <f t="shared" si="0"/>
+        <v>19.26</v>
+      </c>
+      <c r="W8" s="16"/>
+      <c r="X8" s="19"/>
+      <c r="Y8" s="19"/>
+    </row>
+    <row r="9" ht="20.05" customHeight="1" spans="1:25">
+      <c r="A9" s="10">
         <v>8</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="B9" s="14">
+        <v>44496</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="13">
+        <v>100</v>
+      </c>
+      <c r="F9" s="16">
+        <v>9.09</v>
+      </c>
+      <c r="G9" s="16">
+        <v>5</v>
+      </c>
+      <c r="H9" s="16">
+        <v>0.02</v>
+      </c>
+      <c r="I9" s="20">
+        <f>F9*E9+G9+H9</f>
+        <v>914.02</v>
+      </c>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16">
+        <v>9.22</v>
+      </c>
+      <c r="L9" s="16">
+        <v>8.81</v>
+      </c>
+      <c r="M9" s="26">
+        <f>(K9-F9)/(K9-L9)</f>
+        <v>0.317073170731709</v>
+      </c>
+      <c r="N9" s="24">
+        <v>44515</v>
+      </c>
+      <c r="O9" s="16">
+        <v>9.2</v>
+      </c>
+      <c r="P9" s="16">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="16">
+        <v>0.94</v>
+      </c>
+      <c r="R9" s="20">
+        <f>O9*100-P9-Q9</f>
+        <v>914.06</v>
+      </c>
+      <c r="S9" s="27">
+        <v>9.26</v>
+      </c>
+      <c r="T9" s="27">
+        <v>9.1</v>
+      </c>
+      <c r="U9" s="26">
+        <f>(O9-T9)/(S9-T9)</f>
+        <v>0.624999999999997</v>
+      </c>
+      <c r="V9" s="16">
+        <f t="shared" si="0"/>
+        <v>0.0399999999998499</v>
+      </c>
+      <c r="W9" s="16"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="19"/>
+    </row>
+    <row r="10" ht="20.05" customHeight="1" spans="1:25">
+      <c r="A10" s="10">
         <v>9</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
+      <c r="B10" s="14">
+        <v>44497</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="13">
+        <v>100</v>
+      </c>
+      <c r="F10" s="16">
+        <v>6.16</v>
+      </c>
+      <c r="G10" s="16">
+        <v>5</v>
+      </c>
+      <c r="H10" s="16">
+        <v>0</v>
+      </c>
+      <c r="I10" s="20">
+        <f>F10*E10+G10+H10</f>
+        <v>621</v>
+      </c>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16">
+        <v>6.21</v>
+      </c>
+      <c r="L10" s="16">
+        <v>6.08</v>
+      </c>
+      <c r="M10" s="26">
+        <f>(K10-F10)/(K10-L10)</f>
+        <v>0.384615384615384</v>
+      </c>
+      <c r="N10" s="24">
+        <v>44518</v>
+      </c>
+      <c r="O10" s="16">
+        <v>5.55</v>
+      </c>
+      <c r="P10" s="16">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="16">
+        <v>0.56</v>
+      </c>
+      <c r="R10" s="20">
+        <f>O10*100-P10-Q10</f>
+        <v>549.44</v>
+      </c>
+      <c r="S10" s="27">
+        <v>5.58</v>
+      </c>
+      <c r="T10" s="27">
+        <v>5.48</v>
+      </c>
+      <c r="U10" s="26">
+        <f>(O10-T10)/(S10-T10)</f>
+        <v>0.699999999999996</v>
+      </c>
+      <c r="V10" s="16">
+        <f>R10-I10</f>
+        <v>-71.5599999999999</v>
+      </c>
+      <c r="W10" s="16"/>
+      <c r="X10" s="19"/>
+      <c r="Y10" s="19"/>
     </row>
-    <row r="3" ht="22.55" customHeight="1" spans="1:21">
-      <c r="A3" s="5">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="14">
-        <v>7.55</v>
-      </c>
-      <c r="G3" s="14">
-        <v>5</v>
-      </c>
-      <c r="H3" s="14">
-        <v>0.02</v>
-      </c>
-      <c r="I3" s="14">
-        <v>760.02</v>
-      </c>
-      <c r="J3" s="14">
-        <v>5.24</v>
-      </c>
-      <c r="K3" s="16">
-        <v>44491</v>
-      </c>
-      <c r="L3" s="14">
-        <v>7.14</v>
-      </c>
-      <c r="M3" s="14">
-        <v>5</v>
-      </c>
-      <c r="N3" s="14">
-        <v>0.72</v>
-      </c>
-      <c r="O3" s="14">
-        <v>708.28</v>
-      </c>
-      <c r="P3" s="14">
-        <v>-51.74</v>
-      </c>
-      <c r="Q3" s="14">
-        <v>50</v>
-      </c>
-      <c r="R3" s="14">
-        <v>35</v>
-      </c>
-      <c r="S3" s="14">
-        <v>-7.82</v>
-      </c>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
+    <row r="11" ht="20.05" customHeight="1" spans="1:25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="19"/>
     </row>
-    <row r="4" ht="22.35" customHeight="1" spans="1:21">
-      <c r="A4" s="8">
-        <v>2</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="15">
-        <v>7.37</v>
-      </c>
-      <c r="G4" s="15">
-        <v>5</v>
-      </c>
-      <c r="H4" s="15">
-        <v>0</v>
-      </c>
-      <c r="I4" s="15">
-        <v>742</v>
-      </c>
-      <c r="J4" s="15">
-        <v>1.36</v>
-      </c>
-      <c r="K4" s="17">
-        <v>44490</v>
-      </c>
-      <c r="L4" s="15">
-        <v>7.49</v>
-      </c>
-      <c r="M4" s="15">
-        <v>5</v>
-      </c>
-      <c r="N4" s="15">
-        <v>0.75</v>
-      </c>
-      <c r="O4" s="15">
-        <v>743.25</v>
-      </c>
-      <c r="P4" s="15">
-        <v>1.25</v>
-      </c>
-      <c r="Q4" s="15">
-        <v>20</v>
-      </c>
-      <c r="R4" s="15">
-        <v>52.78</v>
-      </c>
-      <c r="S4" s="15">
-        <v>8.82</v>
-      </c>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
+    <row r="12" ht="20.05" customHeight="1" spans="1:25">
+      <c r="A12" s="17"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="19"/>
     </row>
-    <row r="5" ht="22.35" customHeight="1" spans="1:21">
-      <c r="A5" s="8">
-        <v>3</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="15">
-        <v>7.55</v>
-      </c>
-      <c r="G5" s="15">
-        <v>5</v>
-      </c>
-      <c r="H5" s="15">
-        <v>0</v>
-      </c>
-      <c r="I5" s="15">
-        <v>760</v>
-      </c>
-      <c r="J5" s="15">
-        <v>1.39</v>
-      </c>
-      <c r="K5" s="17">
-        <v>44495</v>
-      </c>
-      <c r="L5" s="15">
-        <v>7.35</v>
-      </c>
-      <c r="M5" s="15">
-        <v>5</v>
-      </c>
-      <c r="N5" s="15">
-        <v>0.74</v>
-      </c>
-      <c r="O5" s="15">
-        <v>729.26</v>
-      </c>
-      <c r="P5" s="15">
-        <v>-30.74</v>
-      </c>
-      <c r="Q5" s="15">
-        <v>36.23</v>
-      </c>
-      <c r="R5" s="15">
-        <v>24.32</v>
-      </c>
-      <c r="S5" s="15">
-        <v>-14.39</v>
-      </c>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
+    <row r="13" ht="20.05" customHeight="1" spans="1:25">
+      <c r="A13" s="17"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="19"/>
+      <c r="X13" s="19"/>
+      <c r="Y13" s="19"/>
     </row>
-    <row r="6" ht="22.35" customHeight="1" spans="1:21">
-      <c r="A6" s="8">
-        <v>4</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="15">
-        <v>7.63</v>
-      </c>
-      <c r="G6" s="15">
-        <v>5</v>
-      </c>
-      <c r="H6" s="15">
-        <v>0</v>
-      </c>
-      <c r="I6" s="15">
-        <v>768</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" s="17">
-        <v>44496</v>
-      </c>
-      <c r="L6" s="15">
-        <v>7.13</v>
-      </c>
-      <c r="M6" s="15">
-        <v>5</v>
-      </c>
-      <c r="N6" s="15">
-        <v>0.71</v>
-      </c>
-      <c r="O6" s="15">
-        <v>707.29</v>
-      </c>
-      <c r="P6" s="15">
-        <v>-60.71</v>
-      </c>
-      <c r="Q6" s="15">
-        <v>83.87</v>
-      </c>
-      <c r="R6" s="15">
-        <v>38.1</v>
-      </c>
-      <c r="S6" s="15">
-        <v>-0.32</v>
-      </c>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
+    <row r="14" ht="20.05" customHeight="1" spans="1:25">
+      <c r="A14" s="17"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="19"/>
+      <c r="X14" s="19"/>
+      <c r="Y14" s="19"/>
     </row>
-    <row r="7" ht="22.35" customHeight="1" spans="1:21">
-      <c r="A7" s="8">
-        <v>5</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="15">
-        <v>7.29</v>
-      </c>
-      <c r="G7" s="15">
-        <v>5</v>
-      </c>
-      <c r="H7" s="15">
-        <v>0</v>
-      </c>
-      <c r="I7" s="15">
-        <v>734</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" s="18">
-        <v>44501</v>
-      </c>
-      <c r="L7" s="15">
-        <v>7.4</v>
-      </c>
-      <c r="M7" s="15">
-        <v>5</v>
-      </c>
-      <c r="N7" s="15">
-        <v>0.74</v>
-      </c>
-      <c r="O7" s="15">
-        <v>734.26</v>
-      </c>
-      <c r="P7" s="15">
-        <v>0.26</v>
-      </c>
-      <c r="Q7" s="15">
-        <v>91.89</v>
-      </c>
-      <c r="R7" s="15">
-        <v>66.67</v>
-      </c>
-      <c r="S7" s="15">
-        <v>0.07</v>
-      </c>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
+    <row r="15" ht="20.05" customHeight="1" spans="1:25">
+      <c r="A15" s="17"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="19"/>
+      <c r="W15" s="19"/>
+      <c r="X15" s="19"/>
+      <c r="Y15" s="19"/>
     </row>
-    <row r="8" ht="20.05" customHeight="1" spans="1:21">
-      <c r="A8" s="8">
-        <v>6</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="15">
-        <v>7.51</v>
-      </c>
-      <c r="G8" s="15">
-        <v>5</v>
-      </c>
-      <c r="H8" s="15">
-        <v>0</v>
-      </c>
-      <c r="I8" s="15">
-        <v>756</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8" s="17">
-        <v>44511</v>
-      </c>
-      <c r="L8" s="15">
-        <v>7.64</v>
-      </c>
-      <c r="M8" s="15">
-        <v>5</v>
-      </c>
-      <c r="N8" s="15">
-        <v>0.76</v>
-      </c>
-      <c r="O8" s="15">
-        <v>758.24</v>
-      </c>
-      <c r="P8" s="15">
-        <v>2.24</v>
-      </c>
-      <c r="Q8" s="15">
-        <v>88.89</v>
-      </c>
-      <c r="R8" s="15">
-        <v>63.64</v>
-      </c>
-      <c r="S8" s="15">
-        <v>14.4</v>
-      </c>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
+    <row r="16" ht="20.05" customHeight="1" spans="1:25">
+      <c r="A16" s="17"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="19"/>
+      <c r="W16" s="19"/>
+      <c r="X16" s="19"/>
+      <c r="Y16" s="19"/>
     </row>
-    <row r="9" ht="20.05" customHeight="1" spans="1:21">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
+    <row r="17" ht="20.05" customHeight="1" spans="1:25">
+      <c r="A17" s="17"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="19"/>
+      <c r="W17" s="19"/>
+      <c r="X17" s="19"/>
+      <c r="Y17" s="19"/>
     </row>
-    <row r="10" ht="20.05" customHeight="1" spans="1:21">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
+    <row r="18" ht="20.05" customHeight="1" spans="1:25">
+      <c r="A18" s="17"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="19"/>
+      <c r="W18" s="19"/>
+      <c r="X18" s="19"/>
+      <c r="Y18" s="19"/>
     </row>
-    <row r="11" ht="20.05" customHeight="1" spans="1:21">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
+    <row r="19" ht="20.05" customHeight="1" spans="1:25">
+      <c r="A19" s="17"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="19"/>
+      <c r="W19" s="19"/>
+      <c r="X19" s="19"/>
+      <c r="Y19" s="19"/>
     </row>
-    <row r="12" ht="20.05" customHeight="1" spans="1:21">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
+    <row r="20" ht="20.05" customHeight="1" spans="1:25">
+      <c r="A20" s="17"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="19"/>
+      <c r="W20" s="19"/>
+      <c r="X20" s="19"/>
+      <c r="Y20" s="19"/>
     </row>
-    <row r="13" ht="20.05" customHeight="1" spans="1:21">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
+    <row r="21" ht="20.05" customHeight="1" spans="1:25">
+      <c r="A21" s="17"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="19"/>
+      <c r="W21" s="19"/>
+      <c r="X21" s="19"/>
+      <c r="Y21" s="19"/>
     </row>
-    <row r="14" ht="20.05" customHeight="1" spans="1:21">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-    </row>
-    <row r="15" ht="20.05" customHeight="1" spans="1:21">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13"/>
-    </row>
-    <row r="16" ht="20.05" customHeight="1" spans="1:21">
-      <c r="A16" s="11"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
-    </row>
-    <row r="17" ht="20.05" customHeight="1" spans="1:21">
-      <c r="A17" s="11"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
-    </row>
-    <row r="18" ht="20.05" customHeight="1" spans="1:21">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-    </row>
-    <row r="19" ht="20.05" customHeight="1" spans="1:21">
-      <c r="A19" s="11"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13"/>
-    </row>
-    <row r="20" ht="20.05" customHeight="1" spans="1:21">
-      <c r="A20" s="11"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="13"/>
-    </row>
-    <row r="21" ht="20.05" customHeight="1" spans="1:21">
-      <c r="A21" s="11"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="13"/>
-      <c r="U21" s="13"/>
-    </row>
-    <row r="22" ht="20.05" customHeight="1" spans="1:21">
-      <c r="A22" s="11"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="13"/>
-    </row>
-    <row r="23" ht="20.05" customHeight="1" spans="1:21">
-      <c r="A23" s="11"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="13"/>
-      <c r="U23" s="13"/>
+    <row r="22" ht="20.05" customHeight="1" spans="1:25">
+      <c r="A22" s="17"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="19"/>
+      <c r="W22" s="19"/>
+      <c r="X22" s="19"/>
+      <c r="Y22" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:U1"/>
-  </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277777777777778" footer="0.277777777777778"/>
   <pageSetup paperSize="1" scale="72" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
